--- a/test.xlsx
+++ b/test.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y4"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,297 +441,487 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Source_reference</t>
+          <t>Source</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Room_reference</t>
+          <t>Room</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Federal?_reference</t>
+          <t>Federal?</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Description_reference</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Manufacturer_reference</t>
+          <t>Manufacturer</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Model_Number_reference</t>
+          <t>Model_Number</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Serial_Number_reference</t>
+          <t>Serial_Number</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Cost_Center_reference</t>
+          <t>Cost_Center</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>COST_reference</t>
+          <t>COST</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Date_Acquired_reference</t>
+          <t>Date_Acquired</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Funding_Code_reference</t>
+          <t>Funding_Code</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>PO_Number_reference</t>
+          <t>PO_Number</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Source_scan</t>
+          <t>delta</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Room_scan</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Federal?_scan</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Description_scan</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Manufacturer_scan</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>Model_Number_scan</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>Serial_Number_scan</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>Cost_Center_scan</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>COST_scan</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>Date_Acquired_scan</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>Funding_Code_scan</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>PO_Number_scan</t>
+          <t>Status</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11965</v>
+        <v>3715</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TipWeb</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>210</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>NextGen</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>602</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>ASUS CHROMEBOX CN60</t>
+          <t>COMPUTER TOWER</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>ASUS</t>
+          <t>HP</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>CHROMEBOX CN60</t>
+          <t>360X</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>E4MSCX012824</t>
+          <t>00045-571-601-835</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>High School East</t>
+          <t>Elementary School</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>2300</v>
-      </c>
-      <c r="K2" t="inlineStr"/>
+        <v>693</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>2011-02-22</t>
+        </is>
+      </c>
       <c r="L2" t="n">
-        <v>6001</v>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>24-1234</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>['ref Manufacturer: DELL -&gt; scan Manufacturer: HP', 'ref Model_Number: OPTIPLEX 280 -&gt; scan Model_Number: 360X']</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>11762</v>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>11944</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>TipWeb</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>223</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>ASUS CHROMEBOX CN60</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>ASUS</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>CHROMEBOX CN60</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>E4MSCX011443</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>High School West</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>1100</v>
+      </c>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="n">
-        <v>107</v>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>Laptop</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>lenovo</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>100e</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>CD5294G9T</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>Middle School</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>6001</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>23-5432</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>['ref PO_Number: nan -&gt; scan PO_Number: 23-5432']</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
+        <v>8010</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>TipWeb</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>LOBBY</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>CRES COR C0151FPWUA12B2083Q1</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>CRES COR</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>C0151FPWUA12B2083Q1</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>EAJ-J203747-044</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>High School West</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>1458</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>2009-08-01</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>5101</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>FF-2234</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>['ref Room: KITCHEN -&gt; scan Room: LOBBY', 'ref Cost_Center: Middle School -&gt; scan Cost_Center: High School West']</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>11762</v>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="n">
+        <v>107</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Laptop</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>lenovo</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>100e</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>CD5294G9T</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Middle School</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2330</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>NextGen</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>CAFE</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>CUP DISPENSER</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>HOBART</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>CTC2X2-5</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Elementary School</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>385</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>2004-07-23</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>5101</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>510307</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
         <v>12667</v>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="n">
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="n">
         <v>208</v>
       </c>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr">
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Smartboard</t>
         </is>
       </c>
-      <c r="R4" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Viewsonic</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>VS 15057</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>VS812847203</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>Elementary School</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>11965</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>TipWeb</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>210</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>ASUS CHROMEBOX CN60</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>ASUS</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>CHROMEBOX CN60</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>E4MSCX012824</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>High School East</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>2300</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>6001</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>24-1234</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
